--- a/braph2composite_rfe/pipelines/functional/Example data FUN XLS/FUN_Group_1_XLS.vois.xlsx
+++ b/braph2composite_rfe/pipelines/functional/Example data FUN XLS/FUN_Group_1_XLS.vois.xlsx
@@ -158,9 +158,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="true"/>
-    <col min="2" max="2" width="4" customWidth="true"/>
-    <col min="3" max="3" width="6.90625" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="4.5703125" customWidth="true"/>
+    <col min="3" max="3" width="7.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -263,7 +263,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>29</v>
@@ -274,10 +274,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="0">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -285,7 +285,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="0">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>29</v>
@@ -296,10 +296,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="0">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -307,10 +307,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -318,10 +318,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="0">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -329,7 +329,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="0">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>30</v>
@@ -340,7 +340,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="0">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>30</v>
@@ -351,7 +351,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="0">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>29</v>
@@ -362,7 +362,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="0">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>29</v>
@@ -373,7 +373,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>30</v>
@@ -384,10 +384,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="0">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -395,10 +395,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="0">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -406,10 +406,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="0">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -417,10 +417,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="0">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -428,7 +428,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="0">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>29</v>
@@ -439,10 +439,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="0">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -450,7 +450,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="0">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>30</v>
